--- a/nmadb/501391.xlsx
+++ b/nmadb/501391.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17608"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab\Dropbox\Network Meta-Analyses of  2013\NMA 2013\With outcome data available (28)\Continuous (7)\Study level (4)\Myrsini\Scott\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="12435" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="12435" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -26,15 +21,6 @@
     <t>Study</t>
   </si>
   <si>
-    <t>ta</t>
-  </si>
-  <si>
-    <t>tc</t>
-  </si>
-  <si>
-    <t>md</t>
-  </si>
-  <si>
     <t>se</t>
   </si>
   <si>
@@ -59,10 +45,6 @@
     <t>Moretto</t>
   </si>
   <si>
-    <t xml:space="preserve">
-0,1428571</t>
-  </si>
-  <si>
     <t>Russell-Jones</t>
   </si>
   <si>
@@ -130,12 +112,24 @@
   </si>
   <si>
     <t>Pratley</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>effect=md</t>
+  </si>
+  <si>
+    <t>effect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -198,7 +192,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -240,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,27 +266,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,24 +300,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,14 +475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E14" sqref="E14:E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -536,19 +494,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -556,7 +514,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -579,7 +537,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -602,7 +560,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -625,7 +583,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -648,7 +606,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -669,9 +627,9 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -682,8 +640,8 @@
       <c r="D7" s="1">
         <v>-0.7</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
+      <c r="E7" s="3">
+        <v>0.14285709999999999</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -694,7 +652,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -717,7 +675,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -740,7 +698,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -763,7 +721,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -782,13 +740,13 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -807,7 +765,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -815,7 +773,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
@@ -834,7 +792,7 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I13" s="1">
         <v>2</v>
@@ -842,7 +800,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -861,7 +819,7 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
@@ -869,7 +827,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
@@ -888,7 +846,7 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I15" s="1">
         <v>4</v>
@@ -896,7 +854,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
@@ -915,7 +873,7 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1">
         <v>5</v>
@@ -923,7 +881,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -942,7 +900,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I17" s="1">
         <v>6</v>
@@ -950,7 +908,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -973,7 +931,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
@@ -996,7 +954,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -1014,12 +972,14 @@
         <v>11</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
@@ -1042,7 +1002,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -1065,7 +1025,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>6</v>
@@ -1088,7 +1048,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>6</v>
@@ -1111,7 +1071,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>6</v>
@@ -1134,7 +1094,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
@@ -1157,7 +1117,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>6</v>
@@ -1180,7 +1140,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>6</v>
@@ -1203,7 +1163,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -1226,7 +1186,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -1249,7 +1209,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>5</v>
@@ -1277,24 +1237,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
